--- a/data/7feature_test.xlsx
+++ b/data/7feature_test.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,51 +430,51 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>33.5</v>
+        <v>29.6</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>21.26</v>
+        <v>23.04</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>24.1</v>
+        <v>21.9</v>
       </c>
       <c r="E3">
-        <v>9.300000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>17.88</v>
+        <v>25.54</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -482,51 +482,51 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>29.1</v>
+        <v>30.7</v>
       </c>
       <c r="E4">
-        <v>18.6</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>24.64</v>
+        <v>22.94</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>40.2</v>
+        <v>18.1</v>
       </c>
       <c r="E5">
-        <v>53.3</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>41.46</v>
+        <v>22.69</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -534,77 +534,77 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>33.5</v>
       </c>
       <c r="E6">
-        <v>28.3</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>28.71</v>
+        <v>21.26</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>44.7</v>
+        <v>31.1</v>
       </c>
       <c r="E7">
-        <v>30.3</v>
+        <v>20.1</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
       <c r="G7">
-        <v>25.9</v>
+        <v>25.71</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>30.2</v>
       </c>
       <c r="E8">
-        <v>23.5</v>
+        <v>16.6</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>25.51</v>
+        <v>22.45</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -612,77 +612,77 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>31.6</v>
+        <v>30.2</v>
       </c>
       <c r="E9">
-        <v>18.8</v>
+        <v>21.5</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>23.13</v>
+        <v>27.24</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>35</v>
+        <v>355</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>45.7</v>
+        <v>24.5</v>
       </c>
       <c r="E10">
-        <v>33.1</v>
+        <v>16.6</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>27.36</v>
+        <v>22.62</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>32.4</v>
+        <v>38.5</v>
       </c>
       <c r="E11">
-        <v>19.6</v>
+        <v>27.3</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>24.24</v>
+        <v>28.15</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -690,77 +690,77 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>21.4</v>
+        <v>45.7</v>
       </c>
       <c r="E12">
-        <v>15.9</v>
+        <v>33.1</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>23.2</v>
+        <v>27.36</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="B13">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>39.8</v>
+        <v>33.5</v>
       </c>
       <c r="E13">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>20.8</v>
+        <v>25.09</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="B14">
         <v>63</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>27.3</v>
+        <v>21.3</v>
       </c>
       <c r="E14">
-        <v>21.3</v>
+        <v>16.2</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
       <c r="G14">
-        <v>24.81</v>
+        <v>24.97</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -768,25 +768,25 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>294</v>
+        <v>51</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>28.7</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>18.3</v>
+        <v>10.9</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>23.04</v>
+        <v>18.64</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -794,77 +794,77 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.7</v>
+        <v>33.6</v>
       </c>
       <c r="E16">
-        <v>8.5</v>
+        <v>17.8</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16">
-        <v>22.26</v>
+        <v>21.93</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B17">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>25.1</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>18.8</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>25.82</v>
+        <v>19.39</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>29.9</v>
+        <v>36.3</v>
       </c>
       <c r="E18">
-        <v>19.6</v>
+        <v>20.6</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>23.9</v>
+        <v>22.93</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -872,25 +872,25 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B19">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>35.1</v>
+        <v>28.2</v>
       </c>
       <c r="E19">
-        <v>22.9</v>
+        <v>13.8</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>24.16</v>
+        <v>20.47</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -898,33 +898,33 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="B20">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>30.2</v>
+        <v>33.1</v>
       </c>
       <c r="E20">
-        <v>21.5</v>
+        <v>19.2</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>27.24</v>
+        <v>23.59</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B21">
         <v>56</v>
@@ -933,42 +933,42 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>31.6</v>
+        <v>27.7</v>
       </c>
       <c r="E21">
-        <v>17.7</v>
+        <v>22.5</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>22.88</v>
+        <v>28.5</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B22">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>19.7</v>
+        <v>22.2</v>
       </c>
       <c r="E22">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="F22">
         <v>4</v>
       </c>
       <c r="G22">
-        <v>26.45</v>
+        <v>25.29</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -976,77 +976,77 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B23">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>27.4</v>
+        <v>34.3</v>
       </c>
       <c r="E23">
-        <v>17.3</v>
+        <v>19.1</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23">
-        <v>22.15</v>
+        <v>21.82</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="B24">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>41.7</v>
+        <v>23.9</v>
       </c>
       <c r="E24">
-        <v>25.5</v>
+        <v>10.7</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>24.69</v>
+        <v>18.7</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>464</v>
+        <v>178</v>
       </c>
       <c r="B25">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>21.7</v>
+        <v>38.4</v>
       </c>
       <c r="E25">
-        <v>16.3</v>
+        <v>25.5</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25">
-        <v>25.14</v>
+        <v>26.49</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1054,77 +1054,77 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="B26">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="E26">
-        <v>10.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26">
-        <v>20.54</v>
+        <v>20.67</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>29.3</v>
+        <v>11.4</v>
       </c>
       <c r="E27">
-        <v>16.3</v>
+        <v>5.7</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>21.7</v>
+        <v>16.77</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="B28">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>33.1</v>
+        <v>26.4</v>
       </c>
       <c r="E28">
-        <v>19.1</v>
+        <v>18.6</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>22.61</v>
+        <v>23.57</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1132,129 +1132,129 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>30.9</v>
+        <v>27.5</v>
       </c>
       <c r="E29">
-        <v>27.1</v>
+        <v>16.1</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>31.9</v>
+        <v>22.44</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B30">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>30.9</v>
+        <v>31.7</v>
       </c>
       <c r="E30">
-        <v>18.6</v>
+        <v>22.7</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>21.36</v>
+        <v>25.26</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>28.4</v>
+        <v>24.1</v>
       </c>
       <c r="E31">
-        <v>22.7</v>
+        <v>13.1</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>26.58</v>
+        <v>19.67</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="B32">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>28.9</v>
+        <v>24.1</v>
       </c>
       <c r="E32">
-        <v>17.2</v>
+        <v>16.7</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>22.11</v>
+        <v>24.17</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B33">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>33.6</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>20.1</v>
+        <v>15.6</v>
       </c>
       <c r="F33">
         <v>4</v>
       </c>
       <c r="G33">
-        <v>25.13</v>
+        <v>25.05</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1262,155 +1262,155 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B34">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>27.9</v>
+        <v>26.9</v>
       </c>
       <c r="E34">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>21.97</v>
+        <v>24.31</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="B35">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>38.4</v>
+        <v>33.9</v>
       </c>
       <c r="E35">
-        <v>25.5</v>
+        <v>21.2</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>26.49</v>
+        <v>24.33</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>25.4</v>
+        <v>13.2</v>
       </c>
       <c r="E36">
-        <v>18.3</v>
+        <v>6.4</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>22.1</v>
+        <v>18.02</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="B37">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>39.6</v>
+        <v>42.6</v>
       </c>
       <c r="E37">
-        <v>23.8</v>
+        <v>41.1</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G37">
-        <v>25.47</v>
+        <v>36.85</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B38">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>32.9</v>
+        <v>39.1</v>
       </c>
       <c r="E38">
-        <v>19.3</v>
+        <v>25.8</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G38">
-        <v>21.64</v>
+        <v>25.94</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="B39">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>21.2</v>
+        <v>37</v>
       </c>
       <c r="E39">
-        <v>16.9</v>
+        <v>29.9</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39">
-        <v>23.59</v>
+        <v>29.93</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1418,129 +1418,129 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="B40">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>44.6</v>
       </c>
       <c r="E40">
-        <v>20.2</v>
+        <v>27.3</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>23.71</v>
+        <v>29.92</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B41">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>24.5</v>
+        <v>26.1</v>
       </c>
       <c r="E41">
-        <v>12</v>
+        <v>13.7</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
       <c r="G41">
-        <v>20.54</v>
+        <v>20.36</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="B42">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>28.5</v>
+        <v>39.3</v>
       </c>
       <c r="E42">
-        <v>24.4</v>
+        <v>26.3</v>
       </c>
       <c r="F42">
         <v>4</v>
       </c>
       <c r="G42">
-        <v>25.75</v>
+        <v>26.62</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="B43">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>40.7</v>
       </c>
       <c r="E43">
-        <v>11.7</v>
+        <v>29.1</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>19.87</v>
+        <v>30.23</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="B44">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>41.7</v>
+        <v>33.8</v>
       </c>
       <c r="E44">
-        <v>27.3</v>
+        <v>18.9</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>29.31</v>
+        <v>22.39</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -1548,85 +1548,85 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B45">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>39.3</v>
+        <v>26.9</v>
       </c>
       <c r="E45">
-        <v>31.9</v>
+        <v>13.4</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>29.57</v>
+        <v>19.93</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="B46">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>30.5</v>
+        <v>26.9</v>
       </c>
       <c r="E46">
-        <v>26.4</v>
+        <v>21.2</v>
       </c>
       <c r="F46">
         <v>4</v>
       </c>
       <c r="G46">
-        <v>29.14</v>
+        <v>26.86</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="B47">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>43.7</v>
+        <v>34.4</v>
       </c>
       <c r="E47">
-        <v>28.8</v>
+        <v>18.2</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>27.83</v>
+        <v>21.75</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="B48">
         <v>58</v>
@@ -1635,42 +1635,42 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>23.9</v>
+        <v>30.6</v>
       </c>
       <c r="E48">
-        <v>10.7</v>
+        <v>24</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48">
-        <v>18.7</v>
+        <v>28.39</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>30.3</v>
+        <v>25.5</v>
       </c>
       <c r="E49">
-        <v>15</v>
+        <v>13.8</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49">
-        <v>20.19</v>
+        <v>23.46</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -1678,51 +1678,51 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B50">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>26.9</v>
+        <v>33.9</v>
       </c>
       <c r="E50">
-        <v>13.4</v>
+        <v>21</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50">
-        <v>19.93</v>
+        <v>27.79</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>71</v>
+        <v>323</v>
       </c>
       <c r="B51">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>21.5</v>
+        <v>28.1</v>
       </c>
       <c r="E51">
-        <v>15.4</v>
+        <v>20.1</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>25.82</v>
+        <v>24.58</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -1730,51 +1730,51 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B52">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>32.2</v>
+        <v>18.2</v>
       </c>
       <c r="E52">
-        <v>18.1</v>
+        <v>12.3</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
-        <v>23.99</v>
+        <v>21.81</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B53">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="E53">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53">
-        <v>19.48</v>
+        <v>20.77</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -1782,155 +1782,155 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c r="B54">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>33.6</v>
+        <v>24.1</v>
       </c>
       <c r="E54">
-        <v>29.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>31.83</v>
+        <v>17.88</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B55">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>27.3</v>
+        <v>21.4</v>
       </c>
       <c r="E55">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
       <c r="G55">
-        <v>23.42</v>
+        <v>23.2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B56">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>39.7</v>
+        <v>10.7</v>
       </c>
       <c r="E56">
-        <v>28.3</v>
+        <v>8.5</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G56">
-        <v>28</v>
+        <v>22.26</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B57">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>26.5</v>
+        <v>27.7</v>
       </c>
       <c r="E57">
-        <v>18.6</v>
+        <v>25.7</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G57">
-        <v>25.07</v>
+        <v>30.58</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B58">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>38.5</v>
+        <v>27.4</v>
       </c>
       <c r="E58">
-        <v>27.3</v>
+        <v>16.9</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G58">
-        <v>28.15</v>
+        <v>23.58</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>1050</v>
+        <v>192</v>
       </c>
       <c r="B59">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>36.4</v>
+        <v>34.9</v>
       </c>
       <c r="E59">
-        <v>25.1</v>
+        <v>24.1</v>
       </c>
       <c r="F59">
         <v>4</v>
       </c>
       <c r="G59">
-        <v>27.82</v>
+        <v>25.22</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -1938,25 +1938,25 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B60">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>35.8</v>
+        <v>33.6</v>
       </c>
       <c r="E60">
-        <v>26.1</v>
+        <v>21.4</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G60">
-        <v>27.24</v>
+        <v>22.85</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -1964,77 +1964,77 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="B61">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>28</v>
+        <v>41.7</v>
       </c>
       <c r="E61">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="F61">
         <v>4</v>
       </c>
       <c r="G61">
-        <v>26.99</v>
+        <v>25.28</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B62">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>33.8</v>
+        <v>28.9</v>
       </c>
       <c r="E62">
-        <v>19.2</v>
+        <v>26.6</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G62">
-        <v>23.7</v>
+        <v>29.04</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B63">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>37.5</v>
+        <v>39.6</v>
       </c>
       <c r="E63">
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G63">
-        <v>22.21</v>
+        <v>26.55</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -2042,103 +2042,103 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>26.7</v>
+        <v>19.7</v>
       </c>
       <c r="E64">
-        <v>23.4</v>
+        <v>9</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>28.51</v>
+        <v>17.54</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="B65">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>33.9</v>
+        <v>30.4</v>
       </c>
       <c r="E65">
-        <v>26.3</v>
+        <v>15.7</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>28.56</v>
+        <v>20.61</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="B66">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>41.2</v>
+        <v>36.3</v>
       </c>
       <c r="E66">
-        <v>24.2</v>
+        <v>34.8</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G66">
-        <v>23.47</v>
+        <v>32.51</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B67">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>31.2</v>
+        <v>23.6</v>
       </c>
       <c r="E67">
-        <v>15.3</v>
+        <v>16.3</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67">
-        <v>19.91</v>
+        <v>23.49</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2146,25 +2146,25 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="B68">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>32.6</v>
+        <v>25.9</v>
       </c>
       <c r="E68">
-        <v>20.9</v>
+        <v>16</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68">
-        <v>23.46</v>
+        <v>21.77</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -2172,51 +2172,51 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>33.2</v>
+        <v>35.4</v>
       </c>
       <c r="E69">
-        <v>15.3</v>
+        <v>23.4</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G69">
-        <v>21.39</v>
+        <v>24.31</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="B70">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>20.9</v>
+        <v>36.3</v>
       </c>
       <c r="E70">
-        <v>14.5</v>
+        <v>21.1</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G70">
-        <v>24.93</v>
+        <v>25.13</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -2224,25 +2224,25 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>74</v>
+        <v>1199</v>
       </c>
       <c r="B71">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>31.2</v>
+        <v>25.7</v>
       </c>
       <c r="E71">
-        <v>16.8</v>
+        <v>20.8</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G71">
-        <v>21.8</v>
+        <v>26.43</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -2250,51 +2250,51 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>25</v>
+        <v>40.1</v>
       </c>
       <c r="E72">
-        <v>10.9</v>
+        <v>22.5</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G72">
-        <v>18.64</v>
+        <v>25.15</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="B73">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>33.9</v>
+        <v>32.9</v>
       </c>
       <c r="E73">
-        <v>21.2</v>
+        <v>19.7</v>
       </c>
       <c r="F73">
         <v>3</v>
       </c>
       <c r="G73">
-        <v>24.33</v>
+        <v>23.62</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -2302,25 +2302,25 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>19.1</v>
       </c>
       <c r="E74">
-        <v>15.6</v>
+        <v>8.1</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>25.05</v>
+        <v>17.98</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -2328,25 +2328,25 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B75">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>25.5</v>
+        <v>33.9</v>
       </c>
       <c r="E75">
-        <v>13.4</v>
+        <v>26.3</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G75">
-        <v>19.78</v>
+        <v>28.56</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2354,25 +2354,25 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="B76">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>35.9</v>
+        <v>23.6</v>
       </c>
       <c r="E76">
-        <v>19</v>
+        <v>21.1</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G76">
-        <v>23.14</v>
+        <v>25.16</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -2380,181 +2380,181 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B77">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>32.6</v>
+        <v>22.9</v>
       </c>
       <c r="E77">
-        <v>19.7</v>
+        <v>11.1</v>
       </c>
       <c r="F77">
         <v>2</v>
       </c>
       <c r="G77">
-        <v>22.89</v>
+        <v>18.77</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="B78">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>36.7</v>
+        <v>30.9</v>
       </c>
       <c r="E78">
-        <v>22.9</v>
+        <v>27.1</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G78">
-        <v>23.6</v>
+        <v>31.9</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B79">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>28.2</v>
+        <v>33.1</v>
       </c>
       <c r="E79">
-        <v>13.3</v>
+        <v>18.7</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79">
-        <v>20.43</v>
+        <v>23.72</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B80">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>30.8</v>
+        <v>39.6</v>
       </c>
       <c r="E80">
-        <v>22.9</v>
+        <v>23.8</v>
       </c>
       <c r="F80">
         <v>4</v>
       </c>
       <c r="G80">
-        <v>26.04</v>
+        <v>25.47</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B81">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>37.7</v>
+        <v>33.3</v>
       </c>
       <c r="E81">
-        <v>24.6</v>
+        <v>16.6</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G81">
-        <v>27.67</v>
+        <v>21.47</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B82">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>43</v>
+        <v>35.6</v>
       </c>
       <c r="E82">
-        <v>37.8</v>
+        <v>19.8</v>
       </c>
       <c r="F82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G82">
-        <v>31.71</v>
+        <v>21.19</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="B83">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>50.5</v>
+        <v>33.5</v>
       </c>
       <c r="E83">
-        <v>46.9</v>
+        <v>27.2</v>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G83">
-        <v>38.86</v>
+        <v>28.47</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -2565,22 +2565,22 @@
         <v>56</v>
       </c>
       <c r="B84">
+        <v>24</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
         <v>28</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>29.5</v>
-      </c>
       <c r="E84">
-        <v>17.4</v>
+        <v>14.3</v>
       </c>
       <c r="F84">
         <v>2</v>
       </c>
       <c r="G84">
-        <v>22.22</v>
+        <v>18.98</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -2588,77 +2588,77 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>307</v>
+        <v>82</v>
       </c>
       <c r="B85">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>39.2</v>
+        <v>26.3</v>
       </c>
       <c r="E85">
-        <v>24.5</v>
+        <v>13.9</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>28.54</v>
+        <v>19.89</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="B86">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>25.5</v>
+        <v>33.8</v>
       </c>
       <c r="E86">
-        <v>16.1</v>
+        <v>22.2</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G86">
-        <v>22.54</v>
+        <v>26.97</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="B87">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>33.4</v>
+        <v>29.9</v>
       </c>
       <c r="E87">
-        <v>19.8</v>
+        <v>18.5</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87">
-        <v>23.1</v>
+        <v>22.95</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -2666,51 +2666,51 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="B88">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="E88">
-        <v>20.7</v>
+        <v>16.3</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G88">
-        <v>25.37</v>
+        <v>23.17</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B89">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>16.7</v>
+        <v>27.4</v>
       </c>
       <c r="E89">
-        <v>11.2</v>
+        <v>13.4</v>
       </c>
       <c r="F89">
         <v>2</v>
       </c>
       <c r="G89">
-        <v>21.44</v>
+        <v>20.58</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -2718,51 +2718,51 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B90">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>32.8</v>
+        <v>27.3</v>
       </c>
       <c r="E90">
-        <v>18.9</v>
+        <v>13</v>
       </c>
       <c r="F90">
         <v>2</v>
       </c>
       <c r="G90">
-        <v>22.69</v>
+        <v>18.96</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B91">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>25.6</v>
+        <v>38.1</v>
       </c>
       <c r="E91">
-        <v>11.1</v>
+        <v>20.9</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91">
-        <v>16.18</v>
+        <v>21.4</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -2770,77 +2770,77 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="B92">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E92">
-        <v>14.3</v>
+        <v>28.4</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G92">
-        <v>18.98</v>
+        <v>31</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="B93">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>28.3</v>
+        <v>39.3</v>
       </c>
       <c r="E93">
-        <v>22.2</v>
+        <v>21.6</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G93">
-        <v>26.2</v>
+        <v>22.7</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B94">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>31</v>
+        <v>27.1</v>
       </c>
       <c r="E94">
-        <v>18.5</v>
+        <v>13.7</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G94">
-        <v>23.82</v>
+        <v>20.57</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -2848,51 +2848,51 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c r="B95">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>25.9</v>
+        <v>32.6</v>
       </c>
       <c r="E95">
-        <v>19.4</v>
+        <v>30</v>
       </c>
       <c r="F95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G95">
-        <v>26.43</v>
+        <v>32.44</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="B96">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>34.7</v>
+        <v>26.4</v>
       </c>
       <c r="E96">
-        <v>15.8</v>
+        <v>21.5</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G96">
-        <v>20.23</v>
+        <v>25.49</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -2900,25 +2900,25 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B97">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>21.5</v>
+        <v>19.7</v>
       </c>
       <c r="E97">
-        <v>14.9</v>
+        <v>17.5</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G97">
-        <v>23.22</v>
+        <v>26.45</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -2926,103 +2926,103 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B98">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>42</v>
+        <v>32.5</v>
       </c>
       <c r="E98">
-        <v>31</v>
+        <v>17.1</v>
       </c>
       <c r="F98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G98">
-        <v>28.05</v>
+        <v>22.04</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B99">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>18.6</v>
+        <v>24.5</v>
       </c>
       <c r="E99">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F99">
         <v>2</v>
       </c>
       <c r="G99">
-        <v>21.58</v>
+        <v>20.54</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B100">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>32.7</v>
+        <v>19.7</v>
       </c>
       <c r="E100">
-        <v>21.6</v>
+        <v>11.6</v>
       </c>
       <c r="F100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G100">
-        <v>25.11</v>
+        <v>20.98</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="B101">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>39.3</v>
+        <v>33.1</v>
       </c>
       <c r="E101">
-        <v>21.6</v>
+        <v>19.1</v>
       </c>
       <c r="F101">
         <v>2</v>
       </c>
       <c r="G101">
-        <v>22.7</v>
+        <v>22.61</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -3030,51 +3030,51 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B102">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>30.3</v>
+        <v>37</v>
       </c>
       <c r="E102">
-        <v>20.7</v>
+        <v>22.1</v>
       </c>
       <c r="F102">
         <v>3</v>
       </c>
       <c r="G102">
-        <v>23.38</v>
+        <v>24.77</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B103">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>33.1</v>
+        <v>21.9</v>
       </c>
       <c r="E103">
-        <v>17.4</v>
+        <v>11.4</v>
       </c>
       <c r="F103">
         <v>2</v>
       </c>
       <c r="G103">
-        <v>19.31</v>
+        <v>20.78</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -3082,155 +3082,155 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="B104">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>35.5</v>
+        <v>36.2</v>
       </c>
       <c r="E104">
-        <v>27.8</v>
+        <v>22.4</v>
       </c>
       <c r="F104">
         <v>4</v>
       </c>
       <c r="G104">
-        <v>25.63</v>
+        <v>26.13</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="B105">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>31.3</v>
+        <v>30.8</v>
       </c>
       <c r="E105">
-        <v>16.7</v>
+        <v>22.9</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G105">
-        <v>22.01</v>
+        <v>26.04</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B106">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>31.4</v>
+        <v>31.1</v>
       </c>
       <c r="E106">
-        <v>16.5</v>
+        <v>17.3</v>
       </c>
       <c r="F106">
         <v>2</v>
       </c>
       <c r="G106">
-        <v>21.77</v>
+        <v>21.99</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B107">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>33.8</v>
+        <v>21.7</v>
       </c>
       <c r="E107">
-        <v>22.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G107">
-        <v>26.97</v>
+        <v>19.57</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B108">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>38.4</v>
+        <v>23.5</v>
       </c>
       <c r="E108">
-        <v>27.1</v>
+        <v>16.4</v>
       </c>
       <c r="F108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G108">
-        <v>29.6</v>
+        <v>23.68</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B109">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>39.4</v>
+        <v>22.4</v>
       </c>
       <c r="E109">
-        <v>25.6</v>
+        <v>17</v>
       </c>
       <c r="F109">
         <v>4</v>
       </c>
       <c r="G109">
-        <v>28.67</v>
+        <v>25.02</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -3238,103 +3238,103 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="B110">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>24.9</v>
+        <v>28.3</v>
       </c>
       <c r="E110">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G110">
-        <v>24.35</v>
+        <v>20.87</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="B111">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>31.3</v>
+        <v>30.3</v>
       </c>
       <c r="E111">
-        <v>28.8</v>
+        <v>20.7</v>
       </c>
       <c r="F111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G111">
-        <v>31.58</v>
+        <v>23.38</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112">
-        <v>161</v>
+        <v>389</v>
       </c>
       <c r="B112">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>22.4</v>
+        <v>28.3</v>
       </c>
       <c r="E112">
-        <v>17</v>
+        <v>22.3</v>
       </c>
       <c r="F112">
         <v>4</v>
       </c>
       <c r="G112">
-        <v>25.02</v>
+        <v>25.96</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="B113">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>30.7</v>
+        <v>35.3</v>
       </c>
       <c r="E113">
-        <v>16.6</v>
+        <v>20.6</v>
       </c>
       <c r="F113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G113">
-        <v>24.22</v>
+        <v>25.82</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -3342,207 +3342,207 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="B114">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>34.3</v>
+        <v>20.3</v>
       </c>
       <c r="E114">
-        <v>19.1</v>
+        <v>11.7</v>
       </c>
       <c r="F114">
         <v>2</v>
       </c>
       <c r="G114">
-        <v>21.82</v>
+        <v>20.51</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B115">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>39.3</v>
+        <v>31.3</v>
       </c>
       <c r="E115">
-        <v>26.3</v>
+        <v>16.7</v>
       </c>
       <c r="F115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G115">
-        <v>26.62</v>
+        <v>22.01</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B116">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>23.1</v>
+        <v>27.3</v>
       </c>
       <c r="E116">
-        <v>15.4</v>
+        <v>21.3</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116">
-        <v>22.43</v>
+        <v>24.81</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="B117">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>29.2</v>
+        <v>25.6</v>
       </c>
       <c r="E117">
-        <v>20.4</v>
+        <v>18.8</v>
       </c>
       <c r="F117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G117">
-        <v>24.34</v>
+        <v>25.85</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="B118">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>22.6</v>
+        <v>34.6</v>
       </c>
       <c r="E118">
-        <v>10.7</v>
+        <v>21.9</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G118">
-        <v>16.36</v>
+        <v>24.07</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="B119">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>24.4</v>
+        <v>33.9</v>
       </c>
       <c r="E119">
-        <v>15.1</v>
+        <v>19.9</v>
       </c>
       <c r="F119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G119">
-        <v>21.67</v>
+        <v>23.07</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="B120">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>31.3</v>
+        <v>27.9</v>
       </c>
       <c r="E120">
-        <v>18.4</v>
+        <v>22.6</v>
       </c>
       <c r="F120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G120">
-        <v>23.1</v>
+        <v>27.25</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="B121">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>24.5</v>
+        <v>30.5</v>
       </c>
       <c r="E121">
-        <v>15.1</v>
+        <v>26.4</v>
       </c>
       <c r="F121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G121">
-        <v>23.74</v>
+        <v>29.14</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -3550,77 +3550,77 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="B122">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>26.1</v>
+        <v>28.2</v>
       </c>
       <c r="E122">
-        <v>13.7</v>
+        <v>19.8</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G122">
-        <v>20.36</v>
+        <v>24.71</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B123">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>30.3</v>
+        <v>31.1</v>
       </c>
       <c r="E123">
-        <v>24.5</v>
+        <v>15.4</v>
       </c>
       <c r="F123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G123">
-        <v>27.5</v>
+        <v>20.88</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124">
-        <v>296</v>
+        <v>862</v>
       </c>
       <c r="B124">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>32.2</v>
+        <v>27.7</v>
       </c>
       <c r="E124">
-        <v>38.3</v>
+        <v>25</v>
       </c>
       <c r="F124">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G124">
-        <v>36.99</v>
+        <v>29.19</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -3628,25 +3628,25 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B125">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="E125">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="F125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G125">
-        <v>23.51</v>
+        <v>19.3</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -3654,366 +3654,28 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="B126">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>20.3</v>
+        <v>25.6</v>
       </c>
       <c r="E126">
-        <v>13.3</v>
+        <v>20.1</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G126">
-        <v>21.75</v>
+        <v>24.52</v>
       </c>
       <c r="I126">
         <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127">
-        <v>73</v>
-      </c>
-      <c r="B127">
-        <v>68</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127">
-        <v>35.4</v>
-      </c>
-      <c r="E127">
-        <v>21</v>
-      </c>
-      <c r="F127">
-        <v>4</v>
-      </c>
-      <c r="G127">
-        <v>25.52</v>
-      </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128">
-        <v>144</v>
-      </c>
-      <c r="B128">
-        <v>62</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128">
-        <v>28.2</v>
-      </c>
-      <c r="E128">
-        <v>19.8</v>
-      </c>
-      <c r="F128">
-        <v>3</v>
-      </c>
-      <c r="G128">
-        <v>24.71</v>
-      </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129">
-        <v>85</v>
-      </c>
-      <c r="B129">
-        <v>69</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
-        <v>31.1</v>
-      </c>
-      <c r="E129">
-        <v>20.1</v>
-      </c>
-      <c r="F129">
-        <v>4</v>
-      </c>
-      <c r="G129">
-        <v>25.71</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130">
-        <v>107</v>
-      </c>
-      <c r="B130">
-        <v>69</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>26.7</v>
-      </c>
-      <c r="E130">
-        <v>15.6</v>
-      </c>
-      <c r="F130">
-        <v>3</v>
-      </c>
-      <c r="G130">
-        <v>23.32</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131">
-        <v>184</v>
-      </c>
-      <c r="B131">
-        <v>56</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131">
-        <v>29.1</v>
-      </c>
-      <c r="E131">
-        <v>22.6</v>
-      </c>
-      <c r="F131">
-        <v>4</v>
-      </c>
-      <c r="G131">
-        <v>25.81</v>
-      </c>
-      <c r="I131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132">
-        <v>207</v>
-      </c>
-      <c r="B132">
-        <v>63</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132">
-        <v>36.3</v>
-      </c>
-      <c r="E132">
-        <v>34.8</v>
-      </c>
-      <c r="F132">
-        <v>5</v>
-      </c>
-      <c r="G132">
-        <v>32.51</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133">
-        <v>139</v>
-      </c>
-      <c r="B133">
-        <v>40</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="D133">
-        <v>37.4</v>
-      </c>
-      <c r="E133">
-        <v>25.6</v>
-      </c>
-      <c r="F133">
-        <v>4</v>
-      </c>
-      <c r="G133">
-        <v>28.38</v>
-      </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134">
-        <v>98</v>
-      </c>
-      <c r="B134">
-        <v>61</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-      <c r="D134">
-        <v>23.6</v>
-      </c>
-      <c r="E134">
-        <v>15.8</v>
-      </c>
-      <c r="F134">
-        <v>3</v>
-      </c>
-      <c r="G134">
-        <v>23.32</v>
-      </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135">
-        <v>53</v>
-      </c>
-      <c r="B135">
-        <v>57</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <v>20</v>
-      </c>
-      <c r="E135">
-        <v>10</v>
-      </c>
-      <c r="F135">
-        <v>2</v>
-      </c>
-      <c r="G135">
-        <v>19.39</v>
-      </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136">
-        <v>40</v>
-      </c>
-      <c r="B136">
-        <v>27</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>24.1</v>
-      </c>
-      <c r="E136">
-        <v>13.1</v>
-      </c>
-      <c r="F136">
-        <v>2</v>
-      </c>
-      <c r="G136">
-        <v>19.67</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137">
-        <v>62</v>
-      </c>
-      <c r="B137">
-        <v>60</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137">
-        <v>31.1</v>
-      </c>
-      <c r="E137">
-        <v>15.4</v>
-      </c>
-      <c r="F137">
-        <v>2</v>
-      </c>
-      <c r="G137">
-        <v>20.88</v>
-      </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138">
-        <v>88</v>
-      </c>
-      <c r="B138">
-        <v>39</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>34.3</v>
-      </c>
-      <c r="E138">
-        <v>22.3</v>
-      </c>
-      <c r="F138">
-        <v>4</v>
-      </c>
-      <c r="G138">
-        <v>26.61</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139">
-        <v>71</v>
-      </c>
-      <c r="B139">
-        <v>74</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>32.8</v>
-      </c>
-      <c r="E139">
-        <v>18.5</v>
-      </c>
-      <c r="F139">
-        <v>3</v>
-      </c>
-      <c r="G139">
-        <v>23.28</v>
-      </c>
-      <c r="I139">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
